--- a/12. 엑셀의 정보를 불러와 수료증 자동생성/certificate/테스트.xlsx
+++ b/12. 엑셀의 정보를 불러와 수료증 자동생성/certificate/테스트.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,34 +424,68 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ㅁ</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ㅁㅁ</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ㅁㅁㅁ</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ㄹ</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄹㄹ</t>
+          <t>b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ㄹㄹㄹ</t>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d</t>
         </is>
       </c>
     </row>
